--- a/cache_registry/fixtures/multi_year_licenses/detailed_uses.xlsx
+++ b/cache_registry/fixtures/multi_year_licenses/detailed_uses.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+  <si>
+    <t xml:space="preserve">licence_type</t>
+  </si>
   <si>
     <t xml:space="preserve">short_code</t>
   </si>
@@ -34,6 +37,9 @@
     <t xml:space="preserve">lic_type</t>
   </si>
   <si>
+    <t xml:space="preserve">ECUH</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECUH_01</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t xml:space="preserve">export.of.substance.military.submarines.protection.of.electrical.compartments.fixed.systems</t>
   </si>
   <si>
+    <t xml:space="preserve">EFDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">EFDS_01</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t xml:space="preserve">feedstock</t>
   </si>
   <si>
+    <t xml:space="preserve">EHCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">EHCO_03</t>
   </si>
   <si>
@@ -160,12 +172,21 @@
     <t xml:space="preserve">refrigeration</t>
   </si>
   <si>
+    <t xml:space="preserve">ELAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELAB_11</t>
   </si>
   <si>
     <t xml:space="preserve">export.of.substance.for.laboratory.or.analytical.use.detailed.use</t>
   </si>
   <si>
+    <t xml:space="preserve">laboratory use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">EPRA_01</t>
   </si>
   <si>
@@ -175,6 +196,9 @@
     <t xml:space="preserve">process agent uses</t>
   </si>
   <si>
+    <t xml:space="preserve">ICUH</t>
+  </si>
+  <si>
     <t xml:space="preserve">ICUH_01</t>
   </si>
   <si>
@@ -232,6 +256,9 @@
     <t xml:space="preserve">import.of.substance.military.surface.ships.protection.of.flammable.liquid.storage.compartments.fixed.systems</t>
   </si>
   <si>
+    <t xml:space="preserve">IDST</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDST_01</t>
   </si>
   <si>
@@ -247,10 +274,19 @@
     <t xml:space="preserve">import.of.substance.for.reclamation</t>
   </si>
   <si>
+    <t xml:space="preserve">reclamation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">IFDS_01</t>
   </si>
   <si>
     <t xml:space="preserve">import.of.substance.for.feedstock.use.detailed.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILAB</t>
   </si>
   <si>
     <t xml:space="preserve">ILAB_11</t>
@@ -266,11 +302,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -289,6 +326,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -336,12 +379,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,488 +519,611 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="92.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.04"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>7</v>
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>7</v>
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>7</v>
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>7</v>
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>7</v>
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>7</v>
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>7</v>
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>7</v>
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>7</v>
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>7</v>
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>7</v>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="E34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>78</v>
+      <c r="E35" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/cache_registry/fixtures/multi_year_licenses/detailed_uses.xlsx
+++ b/cache_registry/fixtures/multi_year_licenses/detailed_uses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="372">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added from Use list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No reporting obligation</t>
   </si>
   <si>
     <t xml:space="preserve">Exports</t>
@@ -1147,6 +1150,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1168,18 +1172,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF6D6D"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF5B277D"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1253,51 +1260,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1310,47 +1317,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAFD095"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6D6D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF860D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B277D"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1527,1637 +1493,1640 @@
   </sheetPr>
   <dimension ref="A1:XFD149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F43" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K121" activeCellId="0" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="110.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="132.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="110.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="132.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="44.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.04"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="XFD1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4"/>
       <c r="XFD3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4"/>
       <c r="XFD7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="0" t="s">
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="4"/>
       <c r="XFD11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="0" t="s">
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="0" t="s">
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="0" t="s">
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="0" t="s">
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="0" t="s">
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="0" t="s">
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="0" t="s">
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="4"/>
       <c r="XFD22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" s="4"/>
       <c r="XFD23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="4"/>
       <c r="XFD24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" s="4"/>
       <c r="XFD25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="4"/>
       <c r="XFD26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="G27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" s="4"/>
       <c r="XFD28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" s="4"/>
       <c r="XFD29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" s="4"/>
       <c r="XFD30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" s="4"/>
       <c r="XFD31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" s="4"/>
       <c r="XFD32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="XFD33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="XFD34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="XFD35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="XFD36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="H37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="XFD33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="XFD34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="XFD35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="XFD36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>18</v>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" s="4"/>
       <c r="XFD38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J39" s="4"/>
       <c r="XFD39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J40" s="4"/>
       <c r="XFD40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J41" s="4"/>
       <c r="XFD41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J42" s="4"/>
       <c r="XFD42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" s="4"/>
       <c r="XFD43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J44" s="4"/>
       <c r="XFD44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" s="4"/>
       <c r="XFD45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J46" s="4"/>
       <c r="XFD46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" s="4"/>
       <c r="XFD47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J48" s="4"/>
       <c r="XFD48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J49" s="4"/>
       <c r="XFD49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J50" s="4"/>
       <c r="XFD50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J51" s="4"/>
       <c r="XFD51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J52" s="4"/>
       <c r="XFD52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="0" t="s">
+      <c r="D53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>17</v>
+      <c r="F53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="XFD53" s="5"/>
     </row>
@@ -3165,20 +3134,23 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD54" s="5"/>
     </row>
@@ -3186,20 +3158,23 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD55" s="5"/>
     </row>
@@ -3207,20 +3182,23 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD56" s="5"/>
     </row>
@@ -3228,20 +3206,23 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD57" s="5"/>
     </row>
@@ -3249,20 +3230,23 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD58" s="5"/>
     </row>
@@ -3270,20 +3254,23 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD59" s="5"/>
     </row>
@@ -3291,20 +3278,23 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD60" s="5"/>
     </row>
@@ -3312,20 +3302,23 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD61" s="5"/>
     </row>
@@ -3333,20 +3326,23 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD62" s="5"/>
     </row>
@@ -3354,20 +3350,23 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD63" s="5"/>
     </row>
@@ -3375,20 +3374,23 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD64" s="5"/>
     </row>
@@ -3396,20 +3398,23 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD65" s="5"/>
     </row>
@@ -3417,20 +3422,23 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD66" s="5"/>
     </row>
@@ -3438,20 +3446,23 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD67" s="5"/>
     </row>
@@ -3459,20 +3470,23 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD68" s="5"/>
     </row>
@@ -3480,40 +3494,46 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD70" s="5"/>
     </row>
@@ -3521,20 +3541,23 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD71" s="5"/>
     </row>
@@ -3542,985 +3565,988 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="A73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="F73" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="0" t="s">
+      <c r="G73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I73" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="D74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="0" t="s">
+      <c r="H74" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I74" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="0" t="s">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="F75" s="0" t="s">
+      <c r="D75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="0" t="s">
+      <c r="F75" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I75" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F76" s="0" t="s">
+      <c r="D76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G76" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="0" t="s">
+      <c r="F76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I76" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="XFD76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="0" t="s">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="D77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G77" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="0" t="s">
+      <c r="F77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J78" s="4"/>
       <c r="XFD78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J79" s="4"/>
       <c r="XFD79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="E80" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="0" t="s">
+      <c r="F80" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I80" s="0" t="s">
-        <v>18</v>
+      <c r="G80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="D81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>18</v>
+      <c r="I81" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F82" s="0" t="s">
+      <c r="D82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G82" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>18</v>
+      <c r="F82" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="F83" s="0" t="s">
+      <c r="D83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>18</v>
+      <c r="F83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84" s="4"/>
       <c r="XFD84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F85" s="0" t="s">
+      <c r="D85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G85" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>18</v>
+      <c r="F85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="F86" s="0" t="s">
+      <c r="D86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G86" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>18</v>
+      <c r="F86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="XFD86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F87" s="0" t="s">
+      <c r="D87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>18</v>
+      <c r="F87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J88" s="4"/>
       <c r="XFD88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="F89" s="0" t="s">
+      <c r="D89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>18</v>
+      <c r="F89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="D90" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G90" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>18</v>
+      <c r="F90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="D91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>18</v>
+      <c r="F91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F92" s="0" t="s">
+      <c r="D92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>18</v>
+      <c r="F92" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="F93" s="0" t="s">
+      <c r="D93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>18</v>
+      <c r="F93" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F94" s="0" t="s">
+      <c r="D94" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G94" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>18</v>
+      <c r="F94" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F95" s="0" t="s">
+      <c r="D95" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G95" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>18</v>
+      <c r="F95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="B96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="F96" s="0" t="s">
+      <c r="D96" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G96" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>18</v>
+      <c r="F96" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F97" s="0" t="s">
+      <c r="D97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G97" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>18</v>
+      <c r="F97" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="D98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G98" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>18</v>
+      <c r="F98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J99" s="4"/>
       <c r="XFD99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J100" s="4"/>
       <c r="XFD100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J101" s="4"/>
       <c r="XFD101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J102" s="4"/>
       <c r="XFD102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C103" s="0" t="s">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="E103" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G103" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>18</v>
+      <c r="F103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
@@ -4530,582 +4556,582 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="XFD105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D106" s="0" t="s">
+      <c r="A106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="E106" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G106" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>208</v>
+      <c r="F106" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J106" s="8"/>
       <c r="XFD106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D107" s="0" t="s">
+      <c r="A107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="E107" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G107" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H107" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>18</v>
+      <c r="F107" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J108" s="4"/>
       <c r="XFD108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J109" s="4"/>
       <c r="XFD109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J110" s="4"/>
       <c r="XFD110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J111" s="4"/>
       <c r="XFD111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J112" s="4"/>
       <c r="XFD112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J113" s="4"/>
       <c r="XFD113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J114" s="4"/>
       <c r="XFD114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J115" s="4"/>
       <c r="XFD115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J116" s="4"/>
       <c r="XFD116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J117" s="4"/>
       <c r="XFD117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J118" s="4"/>
       <c r="XFD118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J119" s="4"/>
       <c r="XFD119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J120" s="4"/>
       <c r="XFD120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J121" s="4"/>
       <c r="XFD121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J122" s="4"/>
       <c r="XFD122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="F123" s="0" t="s">
+      <c r="A123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G123" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H123" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>18</v>
+      <c r="F123" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD123" s="5"/>
     </row>
@@ -5113,20 +5139,23 @@
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD124" s="5"/>
     </row>
@@ -5134,20 +5163,23 @@
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD125" s="5"/>
     </row>
@@ -5155,20 +5187,23 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD126" s="5"/>
     </row>
@@ -5176,20 +5211,23 @@
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD127" s="5"/>
     </row>
@@ -5197,20 +5235,23 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD128" s="5"/>
     </row>
@@ -5218,22 +5259,25 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD129" s="5"/>
     </row>
@@ -5241,22 +5285,25 @@
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD130" s="5"/>
     </row>
@@ -5264,20 +5311,23 @@
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD131" s="5"/>
     </row>
@@ -5285,20 +5335,23 @@
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD132" s="5"/>
     </row>
@@ -5306,20 +5359,23 @@
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD133" s="5"/>
     </row>
@@ -5327,20 +5383,23 @@
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD134" s="5"/>
     </row>
@@ -5348,20 +5407,23 @@
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD135" s="5"/>
     </row>
@@ -5369,20 +5431,23 @@
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K136" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD136" s="5"/>
     </row>
@@ -5390,20 +5455,23 @@
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD137" s="5"/>
     </row>
@@ -5411,20 +5479,23 @@
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD138" s="5"/>
     </row>
@@ -5432,20 +5503,23 @@
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD139" s="5"/>
     </row>
@@ -5453,20 +5527,23 @@
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD140" s="5"/>
     </row>
@@ -5474,20 +5551,23 @@
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD141" s="5"/>
     </row>
@@ -5495,227 +5575,230 @@
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="XFD142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D143" s="0" t="s">
+      <c r="A143" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="D143" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="E143" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G143" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H143" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>18</v>
+      <c r="F143" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D144" s="0" t="s">
+      <c r="A144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E144" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F144" s="0" t="s">
+      <c r="D144" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G144" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>18</v>
+      <c r="F144" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="XFD144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D145" s="0" t="s">
+      <c r="A145" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E145" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="F145" s="0" t="s">
+      <c r="D145" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G145" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H145" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>18</v>
+      <c r="F145" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D146" s="0" t="s">
+      <c r="A146" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E146" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="F146" s="0" t="s">
+      <c r="D146" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G146" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H146" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>18</v>
+      <c r="F146" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D147" s="0" t="s">
+      <c r="A147" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="F147" s="0" t="s">
+      <c r="D147" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G147" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H147" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I147" s="0" t="s">
-        <v>18</v>
+      <c r="F147" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J149" s="4"/>
     </row>

--- a/cache_registry/fixtures/multi_year_licenses/detailed_uses.xlsx
+++ b/cache_registry/fixtures/multi_year_licenses/detailed_uses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="371">
   <si>
     <t xml:space="preserve">Activity</t>
   </si>
@@ -46,10 +46,7 @@
     <t xml:space="preserve">Lic Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsolete (from Use list)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added from Use list</t>
+    <t xml:space="preserve">Obsolete</t>
   </si>
   <si>
     <t xml:space="preserve">No reporting obligation</t>
@@ -1255,7 +1252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1293,10 +1290,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1493,8 +1486,8 @@
   </sheetPr>
   <dimension ref="A1:XFD149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F43" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K121" activeCellId="0" sqref="K121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F103" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1506,8 +1499,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="132.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="44.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="41.04"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,4266 +1533,4233 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC2" s="3"/>
       <c r="XFD2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC3" s="5"/>
       <c r="XFD3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC4" s="5"/>
       <c r="XFD4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC5" s="5"/>
       <c r="XFD5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC6" s="5"/>
       <c r="XFD6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC7" s="5"/>
       <c r="XFD7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC8" s="5"/>
       <c r="XFD8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC9" s="5"/>
       <c r="XFD9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC10" s="5"/>
       <c r="XFD10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC11" s="5"/>
       <c r="XFD11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC12" s="5"/>
       <c r="XFD12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC13" s="5"/>
       <c r="XFD13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC14" s="5"/>
       <c r="XFD14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC15" s="5"/>
       <c r="XFD15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC16" s="5"/>
       <c r="XFD16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC17" s="5"/>
       <c r="XFD17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC18" s="5"/>
       <c r="XFD18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC19" s="5"/>
       <c r="XFD19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC20" s="5"/>
       <c r="XFD20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC21" s="5"/>
       <c r="XFD21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC22" s="5"/>
       <c r="XFD22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC23" s="5"/>
       <c r="XFD23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC24" s="5"/>
       <c r="XFD24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC25" s="5"/>
       <c r="XFD25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC26" s="5"/>
       <c r="XFD26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC27" s="5"/>
       <c r="XFD27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC28" s="5"/>
       <c r="XFD28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC29" s="5"/>
       <c r="XFD29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC30" s="5"/>
       <c r="XFD30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC31" s="5"/>
       <c r="XFD31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC32" s="5"/>
       <c r="XFD32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC33" s="5"/>
       <c r="XFD33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC34" s="5"/>
       <c r="XFD34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC35" s="5"/>
       <c r="XFD35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC36" s="5"/>
       <c r="XFD36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC37" s="5"/>
       <c r="XFD37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC38" s="5"/>
       <c r="XFD38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC39" s="5"/>
       <c r="XFD39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC40" s="5"/>
       <c r="XFD40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="G41" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC41" s="5"/>
       <c r="XFD41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="G42" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC42" s="5"/>
       <c r="XFD42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC43" s="5"/>
       <c r="XFD43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="G44" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC44" s="5"/>
       <c r="XFD44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="G45" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC45" s="5"/>
       <c r="XFD45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="G46" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC46" s="5"/>
       <c r="XFD46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="G47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC47" s="5"/>
       <c r="XFD47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC48" s="5"/>
       <c r="XFD48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="G49" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC49" s="5"/>
       <c r="XFD49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="G50" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC50" s="5"/>
       <c r="XFD50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC51" s="5"/>
       <c r="XFD51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="G52" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC52" s="5"/>
       <c r="XFD52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="XFC53" s="5"/>
       <c r="XFD53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC54" s="5"/>
       <c r="XFD54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC55" s="5"/>
       <c r="XFD55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC56" s="5"/>
       <c r="XFD56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC57" s="5"/>
       <c r="XFD57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC58" s="5"/>
       <c r="XFD58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC59" s="5"/>
       <c r="XFD59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC60" s="5"/>
       <c r="XFD60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC61" s="5"/>
       <c r="XFD61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC62" s="5"/>
       <c r="XFD62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC63" s="5"/>
       <c r="XFD63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC64" s="5"/>
       <c r="XFD64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC65" s="5"/>
       <c r="XFD65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC66" s="5"/>
       <c r="XFD66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC67" s="5"/>
       <c r="XFD67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC68" s="5"/>
       <c r="XFD68" s="5"/>
     </row>
     <row r="69" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>22</v>
+      <c r="J69" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC70" s="5"/>
       <c r="XFD70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC71" s="5"/>
       <c r="XFD71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC72" s="5"/>
       <c r="XFD72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC73" s="5"/>
       <c r="XFD73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC74" s="5"/>
       <c r="XFD74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC75" s="5"/>
       <c r="XFD75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC76" s="5"/>
       <c r="XFD76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E77" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="XFC77" s="5"/>
       <c r="XFD77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="E78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J78" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC78" s="5"/>
       <c r="XFD78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC79" s="5"/>
       <c r="XFD79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I80" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC80" s="5"/>
       <c r="XFD80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC81" s="5"/>
       <c r="XFD81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="G82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC82" s="5"/>
       <c r="XFD82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC83" s="5"/>
       <c r="XFD83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E84" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC84" s="5"/>
       <c r="XFD84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC85" s="5"/>
       <c r="XFD85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+      <c r="XFC86" s="5"/>
       <c r="XFD86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC87" s="5"/>
       <c r="XFD87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E88" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="G88" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC88" s="5"/>
       <c r="XFD88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E89" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC89" s="5"/>
       <c r="XFD89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E90" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC90" s="5"/>
       <c r="XFD90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC91" s="5"/>
       <c r="XFD91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC92" s="5"/>
       <c r="XFD92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E93" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC93" s="5"/>
       <c r="XFD93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC94" s="5"/>
       <c r="XFD94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E95" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC95" s="5"/>
       <c r="XFD95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC96" s="5"/>
       <c r="XFD96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC97" s="5"/>
       <c r="XFD97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC98" s="5"/>
       <c r="XFD98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E99" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="G99" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J99" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC99" s="5"/>
       <c r="XFD99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E100" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="G100" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC100" s="5"/>
       <c r="XFD100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E101" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="G101" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC101" s="5"/>
       <c r="XFD101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E102" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="G102" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC102" s="5"/>
       <c r="XFD102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="G103" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC103" s="5"/>
       <c r="XFD103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="D104" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I104" s="9"/>
-      <c r="J104" s="10"/>
+      <c r="XFC104" s="5"/>
       <c r="XFD104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D105" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="H105" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I105" s="6"/>
-      <c r="J105" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="XFC105" s="5"/>
       <c r="XFD105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J106" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFC106" s="5"/>
       <c r="XFD106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="G107" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC107" s="5"/>
       <c r="XFD107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="G108" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J108" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC108" s="5"/>
       <c r="XFD108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="E109" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="H109" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC109" s="5"/>
       <c r="XFD109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="E110" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="G110" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="H110" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC110" s="5"/>
       <c r="XFD110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="E111" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="G111" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="H111" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J111" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC111" s="5"/>
       <c r="XFD111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E112" s="4" t="s">
+      <c r="F112" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="G112" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J112" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC112" s="5"/>
       <c r="XFD112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D113" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="F113" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="G113" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J113" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC113" s="5"/>
       <c r="XFD113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E114" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="G114" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J114" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC114" s="5"/>
       <c r="XFD114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E115" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="G115" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC115" s="5"/>
       <c r="XFD115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E116" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="G116" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC116" s="5"/>
       <c r="XFD116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E117" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="G117" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC117" s="5"/>
       <c r="XFD117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E118" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="G118" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC118" s="5"/>
       <c r="XFD118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E119" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="G119" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC119" s="5"/>
       <c r="XFD119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E120" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="G120" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC120" s="5"/>
       <c r="XFD120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E121" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="G121" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC121" s="5"/>
       <c r="XFD121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E122" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="G122" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="XFC122" s="5"/>
       <c r="XFD122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="G123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC123" s="5"/>
       <c r="XFD123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K124" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC124" s="5"/>
       <c r="XFD124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D125" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K125" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC125" s="5"/>
       <c r="XFD125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D126" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC126" s="5"/>
       <c r="XFD126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D127" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K127" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC127" s="5"/>
       <c r="XFD127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D128" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
-      <c r="J128" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC128" s="5"/>
       <c r="XFD128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="F129" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K129" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC129" s="5"/>
       <c r="XFD129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="F130" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
-      <c r="J130" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K130" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC130" s="5"/>
       <c r="XFD130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K131" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC131" s="5"/>
       <c r="XFD131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D132" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K132" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC132" s="5"/>
       <c r="XFD132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K133" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC133" s="5"/>
       <c r="XFD133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D134" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K134" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC134" s="5"/>
       <c r="XFD134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D135" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K135" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC135" s="5"/>
       <c r="XFD135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D136" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E136" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
-      <c r="J136" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K136" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC136" s="5"/>
       <c r="XFD136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D137" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
-      <c r="J137" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC137" s="5"/>
       <c r="XFD137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D138" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
-      <c r="J138" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K138" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC138" s="5"/>
       <c r="XFD138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D139" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
-      <c r="J139" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K139" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC139" s="5"/>
       <c r="XFD139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D140" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K140" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC140" s="5"/>
       <c r="XFD140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D141" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K141" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC141" s="5"/>
       <c r="XFD141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D142" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E142" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
-      <c r="J142" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K142" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="J142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="XFC142" s="5"/>
       <c r="XFD142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="G143" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC143" s="5"/>
       <c r="XFD143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E144" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="G144" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="XFC144" s="5"/>
       <c r="XFD144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E145" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="G145" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E146" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="G146" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E147" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="G147" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="E148" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="G148" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J148" s="4"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="E149" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="G149" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J149" s="4"/>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
